--- a/public/assets/template/Import_Pengurus_Masjid.xlsx
+++ b/public/assets/template/Import_Pengurus_Masjid.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sim-baitulilmi\public\assets\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F1A42A0-50EC-4A72-BADD-B59704B9D091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F5AC73-1055-4145-9D4F-0A52C5FA28F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,8 +19,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={CA7D0305-1C26-4536-BE17-7353E1228565}</author>
+  </authors>
+  <commentList>
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{CA7D0305-1C26-4536-BE17-7353E1228565}">
+      <text>
+        <t>[Komentar beralur]
+Versi Excel memungkinkan Anda untuk membaca komentar beralur; namun, setiap pengeditan pada komentar akan dihapus jika file dibuka di versi Excel yang lebih baru. Pelajari selengkapnya: https://go.microsoft.com/fwlink/?linkid=870924
+Komentar:
+    Mulai Tuliskan data dari baris ke-3</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>No</t>
   </si>
@@ -47,13 +65,31 @@
   </si>
   <si>
     <t>Foto Pengurus</t>
+  </si>
+  <si>
+    <t>Abdullah</t>
+  </si>
+  <si>
+    <t>Laki-Laki</t>
+  </si>
+  <si>
+    <t>Ketua</t>
+  </si>
+  <si>
+    <t>Jati Mulyo, Lampung Selatan, Lampung</t>
+  </si>
+  <si>
+    <t>0895285966543</t>
+  </si>
+  <si>
+    <t>contoh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -63,13 +99,30 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -84,10 +137,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -103,6 +171,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Rahmad Sidik" id="{9B25C4FD-94CC-47C6-809B-C6DD4314C928}" userId="S::rahmad.119140096@student.itera.ac.id::01609846-8db4-4231-abe3-d9a1eaef5404" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -400,60 +474,93 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="J2" dT="2023-07-29T22:45:34.62" personId="{9B25C4FD-94CC-47C6-809B-C6DD4314C928}" id="{CA7D0305-1C26-4536-BE17-7353E1228565}">
+    <text>Mulai Tuliskan data dari baris ke-3</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" customWidth="1"/>
-    <col min="5" max="5" width="20.21875" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" customWidth="1"/>
-    <col min="9" max="9" width="16.77734375" customWidth="1"/>
+    <col min="2" max="2" width="23" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.21875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.77734375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>